--- a/Data.xlsx
+++ b/Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F251"/>
+  <dimension ref="A1:H251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Movie Image</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Stars</t>
         </is>
       </c>
     </row>
@@ -486,7 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['Vince Gilligan']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0903747/mediaviewer/rm3116305665/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['Bryan Cranston', 'Aaron Paul', 'Anna Gunn']</t>
         </is>
       </c>
     </row>
@@ -516,7 +536,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt5491994/mediaviewer/rm1474824705/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['David Attenborough', 'Chadden Hunter', 'Gordon Buchanan']</t>
         </is>
       </c>
     </row>
@@ -546,7 +576,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0795176/mediaviewer/rm1491601921/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['Sigourney Weaver', 'David Attenborough', 'Nikolay Drozdov']</t>
         </is>
       </c>
     </row>
@@ -576,7 +616,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0185906/mediaviewer/rm1833146624/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['Scott Grimes', 'Damian Lewis', 'Ron Livingston']</t>
         </is>
       </c>
     </row>
@@ -606,7 +656,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['Craig Mazin']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt7366338/mediaviewer/rm1992896001/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['Jessie Buckley', 'Jared Harris', 'Stellan Skarsgård']</t>
         </is>
       </c>
     </row>
@@ -636,7 +696,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['David Simon']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0306414/mediaviewer/rm4207608320/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['Dominic West', 'Lance Reddick', 'Sonja Sohn']</t>
         </is>
       </c>
     </row>
@@ -666,7 +736,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['Michael Dante DiMartino', 'Bryan Konietzko']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0417299/mediaviewer/rm2799534337/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Dee Bradley Baker', 'Zach Tyler Eisen', 'Mae Whitman']</t>
         </is>
       </c>
     </row>
@@ -696,7 +776,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt6769208/mediaviewer/rm2177698305/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['David Attenborough', 'Peter Drost', 'Roger Munns']</t>
         </is>
       </c>
     </row>
@@ -726,7 +816,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['David Chase']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0141842/mediaviewer/rm4054074881/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['James Gandolfini', 'Lorraine Bracco', 'Edie Falco']</t>
         </is>
       </c>
     </row>
@@ -756,7 +856,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt2395695/mediaviewer/rm3026524416/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['Neil deGrasse Tyson', 'Christopher Emerson', 'Keythe Farley']</t>
         </is>
       </c>
     </row>
@@ -786,7 +896,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['Ann Druyan', 'Carl Sagan', 'Steven Soter']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0081846/mediaviewer/rm787024385/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['Carl Sagan', 'Jaromír Hanzlík', 'Jonathan Fahn']</t>
         </is>
       </c>
     </row>
@@ -816,7 +936,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt9253866/mediaviewer/rm3840412161/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['David Attenborough']</t>
         </is>
       </c>
     </row>
@@ -846,7 +976,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['David Benioff', 'D.B. Weiss']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0944947/mediaviewer/rm3885121281/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['Emilia Clarke', 'Peter Dinklage', 'Kit Harington']</t>
         </is>
       </c>
     </row>
@@ -876,7 +1016,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0071075/mediaviewer/rm2953200385/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['Laurence Olivier', 'Averell Harriman', 'Anthony Eden']</t>
         </is>
       </c>
     </row>
@@ -906,7 +1056,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['Joe Brumm']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt7678620/mediaviewer/rm4004683521/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['David McCormack', 'Melanie Zanetti', 'Ninthe van Schie']</t>
         </is>
       </c>
     </row>
@@ -936,7 +1096,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['Hiromu Arakawa']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1355642/mediaviewer/rm4007074048/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['Kent Williams', 'Iemasa Kayumi', 'Matthew Leonhart']</t>
         </is>
       </c>
     </row>
@@ -966,7 +1136,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['Dan Harmon', 'Justin Roiland']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt2861424/mediaviewer/rm209331968/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['Chris Parnell', 'Spencer Grammer', 'Sarah Chalke']</t>
         </is>
       </c>
     </row>
@@ -996,7 +1176,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1533395/mediaviewer/rm4034789888/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['Oprah Winfrey', 'David Attenborough', 'Doug Allan']</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1216,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt8420184/mediaviewer/rm2230170369/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['Michael Jordan', 'Phil Jackson', 'Scottie Pippen']</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1256,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['Rod Serling']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0052520/mediaviewer/rm1757242112/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['Rod Serling', 'Robert McCord', 'Jay Overholts']</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1296,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['Mark Gatiss', 'Steven Moffat']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1475582/mediaviewer/rm137431553/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['Benedict Cumberbatch', 'Martin Freeman', 'Una Stubbs']</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1336,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1877514/mediaviewer/rm1743325697/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['Peter Coyote', 'Huy Duc', 'James Willbanks']</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1376,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['Bob Kane', 'Eric Radomski', 'Bruce Timm']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0103359/mediaviewer/rm3798014721/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['Kevin Conroy', 'Loren Lester', 'Efrem Zimbalist Jr.']</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1416,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt2560140/mediaviewer/rm2459906561/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>['Jessie James Grelle', 'Bryce Papenbrook', 'Trina Nishimura']</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1456,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>['Greg Daniels', 'Ricky Gervais', 'Stephen Merchant']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0386676/mediaviewer/rm2849806081/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>['Steve Carell', 'Jenna Fischer', 'John Krasinski']</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1496,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0296310/mediaviewer/rm1419830785/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>['David Attenborough', 'Pierce Brosnan', 'Peter Scoones']</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1536,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt11126994/mediaviewer/rm1229974017/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>['Hailee Steinfeld', 'Kevin Alejandro', 'Jason Spisak']</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1576,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt12392504/mediaviewer/rm2407113985/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['Pratik Gandhi', 'Shreya Dhanwanthary', 'Hemant Kher']</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1616,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['Vince Gilligan', 'Peter Gould']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt3032476/mediaviewer/rm1307512577/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>['Bob Odenkirk', 'Rhea Seehorn', 'Jonathan Banks']</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1656,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt10541088/mediaviewer/rm1709836801/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>['Jeremy Clarkson', 'Kaleb Cooper', 'Charlie Ireland']</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1696,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1806234/mediaviewer/rm3087477249/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['John Hurt', 'Roger Munns']</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1736,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt2092588/mediaviewer/rm3855419905/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>['David Attenborough', 'Alec Baldwin', 'Chadden Hunter']</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1776,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['Joss Whedon']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0303461/mediaviewer/rm1906672641/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>['Nathan Fillion', 'Gina Torres', 'Alan Tudyk']</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1816,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['Yoshihiro Togashi']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt2098220/mediaviewer/rm3767801089/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>['Issei Futamata', 'Megumi Han', 'Cristina Valenzuela']</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1856,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['John Sullivan']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0081912/mediaviewer/rm1305149952/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>['David Jason', 'Nicholas Lyndhurst', 'Roger Lloyd Pack']</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1896,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0098769/mediaviewer/rm4226353665/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>['David McCullough', 'Sam Waterston', 'Julie Harris']</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1936,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0877057/mediaviewer/rm2829388289/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>['Mamoru Miyano', 'Brad Swaile', 'Vincent Tong']</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1976,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['Larry David', 'Jerry Seinfeld']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0098904/mediaviewer/rm1405813248/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>['Jerry Seinfeld', 'Julia Louis-Dreyfus', 'Michael Richards']</t>
         </is>
       </c>
     </row>
@@ -1626,7 +2016,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt9735318/mediaviewer/rm2029777921/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Na</t>
         </is>
       </c>
     </row>
@@ -1656,7 +2056,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0092337/mediaviewer/rm3570207233/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>['Artur Barcis', 'Olgierd Lukaszewicz', 'Olaf Lubaszenko']</t>
         </is>
       </c>
     </row>
@@ -1686,7 +2096,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['Alex Hirsch']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1865718/mediaviewer/rm3967011840/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['Jason Ritter', 'Alex Hirsch', 'Kristen Schaal']</t>
         </is>
       </c>
     </row>
@@ -1716,7 +2136,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['Nic Pizzolatto', 'Issa López']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt2356777/mediaviewer/rm3969993729/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>['Vince Vaughn', 'Colin Farrell', 'Rachel McAdams']</t>
         </is>
       </c>
     </row>
@@ -1726,27 +2156,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>43. Cowboy Bebop</t>
+          <t>43. Persona</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1998–1999</t>
+          <t>2018–</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['Animation', 'Action', 'Adventure']</t>
+          <t>['Crime', 'Drama', 'Mystery']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://m.imdb.com//title/tt0213338/mediaviewer/rm2077174785/?ref_=tt_ov_i</t>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://m.imdb.com//title/tt7920978/mediaviewer/rm2475444992/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['Haluk Bilginer', 'Sebnem Bozoklu', 'Recep Usta']</t>
         </is>
       </c>
     </row>
@@ -1756,27 +2196,37 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>44. Persona</t>
+          <t>44. Cowboy Bebop</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2018–</t>
+          <t>1998–1999</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['Crime', 'Drama', 'Mystery']</t>
+          <t>['Animation', 'Action', 'Adventure']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://m.imdb.com//title/tt7920978/mediaviewer/rm2475444992/?ref_=tt_ov_i</t>
+          <t>["Shin'ichirô Watanabe", 'Hajime Yatate']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://m.imdb.com//title/tt0213338/mediaviewer/rm2077174785/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['Kôichi Yamadera', 'Unshô Ishizuka', 'Megumi Hayashibara']</t>
         </is>
       </c>
     </row>
@@ -1806,7 +2256,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['Noah Hawley']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt2802850/mediaviewer/rm696145153/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>['Billy Bob Thornton', 'Martin Freeman', 'Allison Tolman']</t>
         </is>
       </c>
     </row>
@@ -1836,7 +2296,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['Nathan Fielder', 'Michael Koman']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt2297757/mediaviewer/rm93083904/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['Nathan Fielder', 'Anthony Filosa', 'Salomon Flores']</t>
         </is>
       </c>
     </row>
@@ -1866,7 +2336,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['Beau DeMayo', 'Stan Lee', 'Jack Kirby']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt16026746/mediaviewer/rm1278166273/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['George Buza', 'Cal Dodd', 'Holly Chou']</t>
         </is>
       </c>
     </row>
@@ -1896,7 +2376,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt13675832/mediaviewer/rm2167853569/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>['Feyyaz Yigit', 'Kivanç Kilinç', 'Ahmet Kürsat Öçalan']</t>
         </is>
       </c>
     </row>
@@ -1926,7 +2416,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt4934214/mediaviewer/rm2518699264/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>['Greg Davies', 'Alex Horne', 'Kerry Godliman']</t>
         </is>
       </c>
     </row>
@@ -1956,7 +2456,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1508238/mediaviewer/rm4202249984/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>['Mathieu Kassovitz', 'Martin Sheen', 'Rudolf Hess']</t>
         </is>
       </c>
     </row>
@@ -1986,7 +2496,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['Ava DuVernay']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt7137906/mediaviewer/rm4128072704/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>['Asante Blackk', 'Caleel Harris', 'Ethan Herisse']</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2536,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt3530232/mediaviewer/rm3595252225/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>['John Oliver', 'David Kaye', 'Ryan Barger']</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2576,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt2571774/mediaviewer/rm2280262145/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>['David Attenborough', 'Simon Blakeney', 'Bill Rudolph']</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2616,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['David Crane', 'Marta Kauffman']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0108778/mediaviewer/rm2513109504/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>['Jennifer Aniston', 'Courteney Cox', 'Lisa Kudrow']</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2656,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['Jesse Armstrong']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt7660850/mediaviewer/rm4193857281/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>['Nicholas Braun', 'Brian Cox', 'Kieran Culkin']</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2696,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>['Arunabh Kumar']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt4742876/mediaviewer/rm4127672065/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>['Naveen Kasturia', 'Arunabh Kumar', 'Abhay Mahajan']</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2736,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['Rob McElhenney', 'Glenn Howerton']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0472954/mediaviewer/rm2019109889/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>['Charlie Day', 'Glenn Howerton', 'Rob McElhenney']</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2776,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['Graham Chapman', 'Eric Idle', 'Terry Jones']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0063929/mediaviewer/rm2081033217/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>['Graham Chapman', 'John Cleese', 'Terry Gilliam']</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2816,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>['Aaron Sorkin']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0200276/mediaviewer/rm2673566976/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>['Martin Sheen', 'Rob Lowe', 'Allison Janney']</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2856,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['Larry David']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0264235/mediaviewer/rm4272703489/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>['Larry David', 'Cheryl Hines', 'Jeff Garlin']</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2896,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0081834/mediaviewer/rm34101504/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>['Jürgen Prochnow', 'Herbert Grönemeyer', 'Klaus Wennemann']</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2936,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>['Eiichirô Oda']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0388629/mediaviewer/rm63129601/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>['Mayumi Tanaka', 'Akemi Okamura', 'Laurent Vernin']</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2976,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['Raphael Bob-Waksberg']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt3398228/mediaviewer/rm2257422849/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>['Will Arnett', 'Amy Sedaris', 'Alison Brie']</t>
         </is>
       </c>
     </row>
@@ -2376,7 +3016,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0072500/mediaviewer/rm2297969665/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>['John Cleese', 'Prunella Scales', 'Andrew Sachs']</t>
         </is>
       </c>
     </row>
@@ -2406,7 +3056,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1831164/mediaviewer/rm3668243201/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>['Ali Atay', 'Serkan Keskin', 'Osman Sonant']</t>
         </is>
       </c>
     </row>
@@ -2436,7 +3096,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['Tsukasa Abe', 'Kanehito Yamada']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt22248376/mediaviewer/rm255742465/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>['Atsumi Tanezaki', 'Kana Ichinose', 'Mallorie Rodak']</t>
         </is>
       </c>
     </row>
@@ -2466,7 +3136,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0112130/mediaviewer/rm206448640/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>['Colin Firth', 'Jennifer Ehle', 'Susannah Harker']</t>
         </is>
       </c>
     </row>
@@ -2496,7 +3176,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['Paul Feig']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0193676/mediaviewer/rm1456144896/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>['Linda Cardellini', 'John Francis Daley', 'James Franco']</t>
         </is>
       </c>
     </row>
@@ -2526,7 +3216,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0096548/mediaviewer/rm2565633/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>['Rowan Atkinson', 'Tony Robinson', 'Stephen Fry']</t>
         </is>
       </c>
     </row>
@@ -2556,7 +3256,17 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0214341/mediaviewer/rm1132797952/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>['Doc Harris', 'Christopher Sabat', 'Scott McNeil']</t>
         </is>
       </c>
     </row>
@@ -2586,7 +3296,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['Mark Frost', 'David Lynch']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0098936/mediaviewer/rm1882244352/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>['Kyle MacLachlan', 'Michael Ontkean', 'Mädchen Amick']</t>
         </is>
       </c>
     </row>
@@ -2616,7 +3336,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['Carlo Bernard', 'Chris Brancato', 'Doug Miro']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt2707408/mediaviewer/rm26478848/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>['Pedro Pascal', 'Wagner Moura', 'Boyd Holbrook']</t>
         </is>
       </c>
     </row>
@@ -2646,7 +3376,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>['Neal Brennan', 'Dave Chappelle']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0353049/mediaviewer/rm3676416/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>['Dave Chappelle', 'Donnell Rawlings', 'Rudy Rush']</t>
         </is>
       </c>
     </row>
@@ -2676,7 +3416,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0121220/mediaviewer/rm1956796929/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>['Jôji Yanami', 'Kyle Hebert', 'Masako Nozawa']</t>
         </is>
       </c>
     </row>
@@ -2706,7 +3456,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0074006/mediaviewer/rm4218749440/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>['Derek Jacobi', 'John Hurt', 'Siân Phillips']</t>
         </is>
       </c>
     </row>
@@ -2736,7 +3496,17 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['Charlie Brooker']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt2085059/mediaviewer/rm1448291329/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>['Wunmi Mosaku', 'Monica Dolan', 'Daniel Lapaine']</t>
         </is>
       </c>
     </row>
@@ -2766,7 +3536,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['Trey Parker', 'Matt Stone', 'Brian Graden']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0121955/mediaviewer/rm2471417089/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>['Trey Parker', 'Matt Stone', 'Isaac Hayes']</t>
         </is>
       </c>
     </row>
@@ -2796,7 +3576,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt10233448/mediaviewer/rm1479028993/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>['Yûto Uemura', 'Mike Haimoto', "Shin'ya Takahashi"]</t>
         </is>
       </c>
     </row>
@@ -2826,7 +3616,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>['Brendan Hunt', 'Joe Kelly', 'Bill Lawrence']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt10986410/mediaviewer/rm1876440065/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>['Jason Sudeikis', 'Hannah Waddingham', 'Jeremy Swift']</t>
         </is>
       </c>
     </row>
@@ -2856,7 +3656,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['Katie Krentz', 'Patrick McHale']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt3718778/mediaviewer/rm2162952705/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>['Elijah Wood', 'Collin Dean', 'Melanie Lynskey']</t>
         </is>
       </c>
     </row>
@@ -2886,7 +3696,17 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt5182866/mediaviewer/rm1869145344/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>['Lee Hyeri', 'Go Kyung-pyo', 'Ryu Jun-yeol']</t>
         </is>
       </c>
     </row>
@@ -2916,7 +3736,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>['Arunabh Kumar', 'Saurabh Khanna', 'Raghav Subbu']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt9432978/mediaviewer/rm2014376193/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>['Mayur More', 'Jitendra Kumar', 'Ranjan Raj']</t>
         </is>
       </c>
     </row>
@@ -2946,7 +3776,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['Shreyansh Pandey']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt10530900/mediaviewer/rm3383893761/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>['Jameel Khan', 'Geetanjali Kulkarni', 'Vaibhav Raj Gupta']</t>
         </is>
       </c>
     </row>
@@ -2976,7 +3816,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['Steven Knight']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt2442560/mediaviewer/rm1060899073/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>['Cillian Murphy', 'Paul Anderson', 'Sophie Rundle']</t>
         </is>
       </c>
     </row>
@@ -2996,7 +3846,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2024–2025</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3006,7 +3856,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt2788316/mediaviewer/rm1455376897/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>['Cosmo Jarvis', 'Anna Sawai', 'Tadanobu Asano']</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3896,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt12004706/mediaviewer/rm736067329/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>['Jitendra Kumar', 'Raghubir Yadav', 'Chandan Roy']</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3936,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['Alan Ball']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0248654/mediaviewer/rm3319453441/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>['Peter Krause', 'Michael C. Hall', 'Frances Conroy']</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3976,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>['Bruno Heller', 'William J. MacDonald', 'John Milius']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0384766/mediaviewer/rm996848385/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>['Kevin McKidd', 'Ray Stevenson', 'Polly Walker']</t>
         </is>
       </c>
     </row>
@@ -3126,7 +4016,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['Tom Fontana']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0118421/mediaviewer/rm2665134593/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>['Ernie Hudson', 'J.K. Simmons', 'Lee Tergesen']</t>
         </is>
       </c>
     </row>
@@ -3156,7 +4056,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>['Neil Druckmann', 'Craig Mazin']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt3581920/mediaviewer/rm553794049/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>['Pedro Pascal', 'Bella Ramsey', 'Anna Torv']</t>
         </is>
       </c>
     </row>
@@ -3186,7 +4096,17 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['Tite Kubo']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt14986406/mediaviewer/rm3744598273/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>['Masakazu Morita', 'Johnny Yong Bosch', 'Takayuki Sugô']</t>
         </is>
       </c>
     </row>
@@ -3216,7 +4136,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1910272/mediaviewer/rm670595840/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>['Mamoru Miyano', 'Asami Imai', 'Kana Hanazawa']</t>
         </is>
       </c>
     </row>
@@ -3246,7 +4176,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['Baran bo Odar', 'Jantje Friese']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt5753856/mediaviewer/rm4201619713/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>['Louis Hofmann', 'Karoline Eichhorn', 'Lisa Vicari']</t>
         </is>
       </c>
     </row>
@@ -3276,7 +4216,17 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>['Eric Kripke']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1190634/mediaviewer/rm4040589057/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>['Karl Urban', 'Jack Quaid', 'Antony Starr']</t>
         </is>
       </c>
     </row>
@@ -3306,7 +4256,17 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt5687612/mediaviewer/rm683042304/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>['Phoebe Waller-Bridge', 'Sian Clifford', 'Olivia Colman']</t>
         </is>
       </c>
     </row>
@@ -3336,7 +4296,17 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['Michael Green', 'Amber Noizumi']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt13309742/mediaviewer/rm982219265/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>['Maya Erskine', 'George Takei', 'Masi Oka']</t>
         </is>
       </c>
     </row>
@@ -3366,7 +4336,17 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>['Shawn Ryan']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0286486/mediaviewer/rm3283063808/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>['Michael Chiklis', 'Catherine Dent', 'Walton Goggins']</t>
         </is>
       </c>
     </row>
@@ -3396,7 +4376,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>['Glen A. Larson', 'Ronald D. Moore']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0407362/mediaviewer/rm1800363520/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>['Edward James Olmos', 'Mary McDonnell', 'Jamie Bamber']</t>
         </is>
       </c>
     </row>
@@ -3426,7 +4416,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1606375/mediaviewer/rm2690980096/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>['Hugh Bonneville', 'Phyllis Logan', 'Elizabeth McGovern']</t>
         </is>
       </c>
     </row>
@@ -3456,7 +4456,17 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>['Kentaro Miura']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0318871/mediaviewer/rm3989659393/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>['Marc Diraison', 'Nobutoshi Canna', 'Carrie Keranen']</t>
         </is>
       </c>
     </row>
@@ -3486,7 +4496,17 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
+          <t>['James L. Brooks', 'Matt Groening', 'Sam Simon']</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0096697/mediaviewer/rm1730745600/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>['Dan Castellaneta', 'Nancy Cartwright', 'Harry Shearer']</t>
         </is>
       </c>
     </row>
@@ -3516,7 +4536,17 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
+          <t>['Dan Erickson']</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt11280740/mediaviewer/rm1914702081/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>['Adam Scott', 'Zach Cherry', 'Britt Lower']</t>
         </is>
       </c>
     </row>
@@ -3546,7 +4576,17 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
+          <t>['Mitchell Hurwitz']</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0367279/mediaviewer/rm2120183552/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>['Jason Bateman', 'Michael Cera', 'Portia de Rossi']</t>
         </is>
       </c>
     </row>
@@ -3576,7 +4616,17 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
+          <t>['David Shore']</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0412142/mediaviewer/rm2468813056/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>['Hugh Laurie', 'Omar Epps', 'Robert Sean Leonard']</t>
         </is>
       </c>
     </row>
@@ -3606,7 +4656,17 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
+          <t>['Matthew Weiner']</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0804503/mediaviewer/rm1238608897/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>['Jon Hamm', 'Elisabeth Moss', 'Vincent Kartheiser']</t>
         </is>
       </c>
     </row>
@@ -3636,7 +4696,17 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt4508902/mediaviewer/rm2887004929/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>['Makoto Furukawa', 'Kaito Ishikawa', 'Max Mittelman']</t>
         </is>
       </c>
     </row>
@@ -3666,7 +4736,17 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
+          <t>['Jesse Armstrong', 'Sam Bain', "Andrew O'Connor"]</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0387764/mediaviewer/rm1741292032/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>['David Mitchell', 'Robert Webb', 'Matt King']</t>
         </is>
       </c>
     </row>
@@ -3696,7 +4776,17 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
+          <t>['Robert Kirkman', 'Ryan Ottley', 'Cory Walker']</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt6741278/mediaviewer/rm3446555393/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>['Steven Yeun', 'J.K. Simmons', 'Sandra Oh']</t>
         </is>
       </c>
     </row>
@@ -3726,7 +4816,17 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
+          <t>['Gene Roddenberry']</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0092455/mediaviewer/rm3121789185/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>['Patrick Stewart', 'Brent Spiner', 'Jonathan Frakes']</t>
         </is>
       </c>
     </row>
@@ -3756,7 +4856,17 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
+          <t>['Matt Duffer', 'Ross Duffer']</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt4574334/mediaviewer/rm3336115457/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>['Millie Bobby Brown', 'Finn Wolfhard', 'Winona Ryder']</t>
         </is>
       </c>
     </row>
@@ -3786,7 +4896,17 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt5712554/mediaviewer/rm245787392/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>['Jeremy Clarkson', 'James May', 'Richard Hammond']</t>
         </is>
       </c>
     </row>
@@ -3816,7 +4936,17 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
+          <t>['John Hawkesworth']</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0086661/mediaviewer/rm1531717121/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>['Jeremy Brett', 'David Burke', 'Rosalie Williams']</t>
         </is>
       </c>
     </row>
@@ -3846,7 +4976,17 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0158417/mediaviewer/rm3087342337/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>['Harish Bhimani', 'Nitish Bharadwaj', 'Mukesh Khanna']</t>
         </is>
       </c>
     </row>
@@ -3876,7 +5016,17 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
+          <t>['Amy Sherman-Palladino']</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt5788792/mediaviewer/rm1590506497/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>['Rachel Brosnahan', 'Alex Borstein', 'Michael Zegen']</t>
         </is>
       </c>
     </row>
@@ -3906,7 +5056,17 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
+          <t>['Jack Kirby']</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt6025022/mediaviewer/rm1518228737/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>['George Newbern', 'Kevin Conroy', 'Phil LaMarr']</t>
         </is>
       </c>
     </row>
@@ -3936,7 +5096,17 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
+          <t>['Peter Berg']</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0758745/mediaviewer/rm80413184/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>['Kyle Chandler', 'Connie Britton', 'Zach Gilford']</t>
         </is>
       </c>
     </row>
@@ -3966,7 +5136,17 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
+          <t>['Masashi Kishimoto']</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0988824/mediaviewer/rm4272559361/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>['Alexandre Crepet', 'Junko Takeuchi', 'Maile Flanagan']</t>
         </is>
       </c>
     </row>
@@ -3996,7 +5176,17 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1795096/mediaviewer/rm2093325569/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>['Erdal Besikçioglu', 'Inanç Konukçu', 'Ege Aydan']</t>
         </is>
       </c>
     </row>
@@ -4026,7 +5216,17 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
+          <t>['Jed Mercurio']</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt2303687/mediaviewer/rm1809285377/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>['Martin Compston', 'Vicky McClure', 'Adrian Dunbar']</t>
         </is>
       </c>
     </row>
@@ -4056,7 +5256,17 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1628033/mediaviewer/rm1462180096/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>['Jeremy Clarkson', 'Richard Hammond', 'James May']</t>
         </is>
       </c>
     </row>
@@ -4086,7 +5296,17 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
+          <t>['Taylor Sheridan']</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt13991232/mediaviewer/rm3604932865/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>['Tim McGraw', 'Sam Elliott', 'Faith Hill']</t>
         </is>
       </c>
     </row>
@@ -4116,7 +5336,17 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
+          <t>['Jon Favreau']</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt8111088/mediaviewer/rm2603036161/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>['Pedro Pascal', 'Chris Bartlett', 'Katee Sackhoff']</t>
         </is>
       </c>
     </row>
@@ -4146,7 +5376,17 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
+          <t>['Naoki Urasawa']</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0434706/mediaviewer/rm103671553/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>['Hidenobu Kiuchi', "Liam O'Brien", 'Mamiko Noto']</t>
         </is>
       </c>
     </row>
@@ -4176,7 +5416,17 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
+          <t>['Armando Iannucci']</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0459159/mediaviewer/rm2478413569/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>['Chris Addison', 'James Smith', 'Peter Capaldi']</t>
         </is>
       </c>
     </row>
@@ -4206,7 +5456,17 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1518542/mediaviewer/rm1500905984/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>['Satish Shah', 'Ratna Pathak Shah', 'Sumeet Raghavan']</t>
         </is>
       </c>
     </row>
@@ -4236,7 +5496,17 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
+          <t>['Deepesh Sumitra Jagdish', 'Arunabh Kumar', 'Shreyansh Pandey']</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt14392248/mediaviewer/rm701847041/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>['Naveen Kasturia', 'Shivankit Singh Parihar', 'Abhilash Thapliyal']</t>
         </is>
       </c>
     </row>
@@ -4266,7 +5536,17 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt10801534/mediaviewer/rm147348481/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>['John Wilson', 'Kyle MacLachlan', 'Niko Nelson']</t>
         </is>
       </c>
     </row>
@@ -4296,7 +5576,17 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
+          <t>['Dan Fogelman']</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt5555260/mediaviewer/rm3528846337/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>['Milo Ventimiglia', 'Mandy Moore', 'Sterling K. Brown']</t>
         </is>
       </c>
     </row>
@@ -4326,7 +5616,17 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
+          <t>['Beau Willimon']</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1856010/mediaviewer/rm2415793920/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>['Kevin Spacey', 'Michel Gill', 'Robin Wright']</t>
         </is>
       </c>
     </row>
@@ -4356,7 +5656,17 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0111958/mediaviewer/rm3791537153/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>['Dermot Morgan', "Ardal O'Hanlon", 'Frank Kelly']</t>
         </is>
       </c>
     </row>
@@ -4386,7 +5696,17 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
+          <t>['Donald Glover']</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt4288182/mediaviewer/rm4170255361/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>['Donald Glover', 'Brian Tyree Henry', 'LaKeith Stanfield']</t>
         </is>
       </c>
     </row>
@@ -4416,7 +5736,17 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
+          <t>['Greg Daniels', 'Michael Schur']</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1266020/mediaviewer/rm239932929/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>['Amy Poehler', "Jim O'Heir", 'Nick Offerman']</t>
         </is>
       </c>
     </row>
@@ -4446,7 +5776,17 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
+          <t>['Peter Morgan']</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt4786824/mediaviewer/rm4205663745/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>['Claire Foy', 'Olivia Colman', 'Imelda Staunton']</t>
         </is>
       </c>
     </row>
@@ -4476,7 +5816,17 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
+          <t>['David Milch']</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0348914/mediaviewer/rm1774968065/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>['Timothy Olyphant', 'Ian McShane', 'Molly Parker']</t>
         </is>
       </c>
     </row>
@@ -4506,7 +5856,17 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
+          <t>['Gorô Taniguchi', 'Ichirô Ôkouchi']</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0994314/mediaviewer/rm3356955905/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>['Jun Fukuyama', 'Takahiro Sakurai', 'Johnny Yong Bosch']</t>
         </is>
       </c>
     </row>
@@ -4536,7 +5896,17 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
+          <t>['Chris Carter']</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0106179/mediaviewer/rm73865472/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>['David Duchovny', 'Gillian Anderson', 'Mitch Pileggi']</t>
         </is>
       </c>
     </row>
@@ -4566,7 +5936,17 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
+          <t>['James Manos Jr.']</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0773262/mediaviewer/rm2891311105/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>['Michael C. Hall', 'Jennifer Carpenter', 'David Zayas']</t>
         </is>
       </c>
     </row>
@@ -4596,7 +5976,17 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
+          <t>['Ramanand Sagar']</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0268093/mediaviewer/rm49814272/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>['Arun Govil', 'Deepika Chikhalia', 'Sunil Lahri']</t>
         </is>
       </c>
     </row>
@@ -4626,7 +6016,17 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
+          <t>['Genndy Tartakovsky']</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt10332508/mediaviewer/rm2330529025/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>['Aaron LaPlante', 'Laëtitia Eïdo', 'Fred Tatasciore']</t>
         </is>
       </c>
     </row>
@@ -4656,7 +6056,17 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
+          <t>['Russell T. Davies']</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt9140342/mediaviewer/rm4074949121/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>['Olly Alexander', 'Nathaniel Curtis', 'Shaun Dooley']</t>
         </is>
       </c>
     </row>
@@ -4686,7 +6096,17 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
+          <t>['Pendleton Ward']</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1305826/mediaviewer/rm3593672705/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>['John DiMaggio', 'Jeremy Shada', 'Tom Kenny']</t>
         </is>
       </c>
     </row>
@@ -4716,7 +6136,17 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
+          <t>['Måns Mårlind', 'Hans Rosenfeldt', 'Björn Stein']</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1733785/mediaviewer/rm1526325504/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>['Sofia Helin', 'Rafael Pettersson', 'Sarah Boberg']</t>
         </is>
       </c>
     </row>
@@ -4746,7 +6176,17 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
+          <t>['Drew Goddard']</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt3322312/mediaviewer/rm3675684096/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>['Charlie Cox', "Vincent D'Onofrio", 'Deborah Ann Woll']</t>
         </is>
       </c>
     </row>
@@ -4776,7 +6216,17 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt4299972/mediaviewer/rm3853154305/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>['Robert Durst', 'Andrew Jarecki', 'Charles Bagli']</t>
         </is>
       </c>
     </row>
@@ -4806,7 +6256,17 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0088484/mediaviewer/rm707208705/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>['Rowan Atkinson', 'Tony Robinson', 'Tim McInnerny']</t>
         </is>
       </c>
     </row>
@@ -4836,7 +6296,17 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0096639/mediaviewer/rm3972594689/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>['Robert Duvall', 'Tommy Lee Jones', 'Danny Glover']</t>
         </is>
       </c>
     </row>
@@ -4866,7 +6336,17 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
+          <t>['Joe Penhall']</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt5290382/mediaviewer/rm862556929/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>['Jonathan Groff', 'Holt McCallany', 'Anna Torv']</t>
         </is>
       </c>
     </row>
@@ -4896,7 +6376,17 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt3398540/mediaviewer/rm1636504833/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>['Ayumu Murase', 'Kaito Ishikawa', 'Yu Hayashi']</t>
         </is>
       </c>
     </row>
@@ -4926,7 +6416,17 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0094525/mediaviewer/rm3461031681/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>['David Suchet', 'Hugh Fraser', 'Philip Jackson']</t>
         </is>
       </c>
     </row>
@@ -4956,7 +6456,17 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
+          <t>['Leslie Greif', 'Michael Tolkin']</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt13111040/mediaviewer/rm1746409473/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>['Miles Teller', 'Matthew Goode', 'Dan Fogler']</t>
         </is>
       </c>
     </row>
@@ -4986,7 +6496,17 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
+          <t>['John Hawkesworth']</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0090509/mediaviewer/rm617445633/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>['Jeremy Brett', 'Edward Hardwicke', 'Rosalie Williams']</t>
         </is>
       </c>
     </row>
@@ -5016,7 +6536,17 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
+          <t>['Rowan Atkinson', 'Richard Curtis']</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0096657/mediaviewer/rm499396865/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>['Rowan Atkinson', 'Matilda Ziegler', 'Robin Driscoll']</t>
         </is>
       </c>
     </row>
@@ -5046,7 +6576,17 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
+          <t>['Leonardo Fasoli', 'Stefano Bises', 'Roberto Saviano']</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt2049116/mediaviewer/rm395953153/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>['Salvatore Esposito', "Marco D'Amore", 'Ivana Lotito']</t>
         </is>
       </c>
     </row>
@@ -5076,7 +6616,17 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt4834232/mediaviewer/rm699286528/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>['Matthew Mercer', "Liam O'Brien", 'Marisha Ray']</t>
         </is>
       </c>
     </row>
@@ -5106,7 +6656,17 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt10850932/mediaviewer/rm3056777473/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>['Hyun Bin', 'Son Ye-jin', 'Seo Ji-hye']</t>
         </is>
       </c>
     </row>
@@ -5136,7 +6696,17 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
+          <t>['Steven Canals', 'Brad Falchuk', 'Ryan Murphy']</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt7562112/mediaviewer/rm3665965057/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>['Michaela Jaé (MJ) Rodriguez', 'Dominique Jackson', 'Indya Moore']</t>
         </is>
       </c>
     </row>
@@ -5166,7 +6736,17 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
+          <t>['Joel Hodgson']</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0094517/mediaviewer/rm3225886720/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>['Joel Hodgson', 'Michael J. Nelson', 'Trace Beaulieu']</t>
         </is>
       </c>
     </row>
@@ -5176,27 +6756,37 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>158. Yeh Meri Family</t>
+          <t>158. Mr Inbetween</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2018–</t>
+          <t>2018–2021</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>['Comedy', 'Drama', 'Family']</t>
+          <t>['Crime', 'Drama']</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>https://m.imdb.com//title/tt8595766/mediaviewer/rm2970109185/?ref_=tt_ov_i</t>
+          <t>['Scott Ryan']</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>https://m.imdb.com//title/tt7472896/mediaviewer/rm55689217/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>['Scott Ryan', 'Chika Yasumura', 'Justin Rosniak']</t>
         </is>
       </c>
     </row>
@@ -5206,27 +6796,37 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>159. Mr Inbetween</t>
+          <t>159. Yeh Meri Family</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2018–2021</t>
+          <t>2018–</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>['Crime', 'Drama']</t>
+          <t>['Comedy', 'Drama', 'Family']</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>https://m.imdb.com//title/tt7472896/mediaviewer/rm55689217/?ref_=tt_ov_i</t>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>https://m.imdb.com//title/tt8595766/mediaviewer/rm2970109185/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>['Hetal Gada', 'Anngad Raaj', 'Rajesh Kumar']</t>
         </is>
       </c>
     </row>
@@ -5256,7 +6856,17 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0092324/mediaviewer/rm858203649/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>['Rowan Atkinson', 'Tony Robinson', 'Hugh Laurie']</t>
         </is>
       </c>
     </row>
@@ -5286,7 +6896,17 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
+          <t>['Adam Reed']</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1486217/mediaviewer/rm1993863680/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>['H. Jon Benjamin', 'Judy Greer', 'Amber Nash']</t>
         </is>
       </c>
     </row>
@@ -5316,7 +6936,17 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
+          <t>['Moira Walley-Beckett']</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt5421602/mediaviewer/rm4190211329/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>['Amybeth McNulty', 'Geraldine James', 'R.H. Thomson']</t>
         </is>
       </c>
     </row>
@@ -5326,7 +6956,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>163. Demon Slayer: Kimetsu no Yaiba</t>
+          <t>163. Young Justice</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5336,7 +6966,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2019–</t>
+          <t>2010–2023</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5346,7 +6976,17 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>https://m.imdb.com//title/tt9335498/mediaviewer/rm888549377/?ref_=tt_ov_i</t>
+          <t>['Greg Weisman', 'Brandon Vietti', 'Geoff Johns']</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>https://m.imdb.com//title/tt1641384/mediaviewer/rm530445313/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>['Nolan North', 'Danica McKellar', 'Jesse McCartney']</t>
         </is>
       </c>
     </row>
@@ -5356,7 +6996,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>164. Young Justice</t>
+          <t>164. Demon Slayer: Kimetsu no Yaiba</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5366,7 +7006,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2010–2023</t>
+          <t>2019–</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5376,7 +7016,17 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>https://m.imdb.com//title/tt1641384/mediaviewer/rm530445313/?ref_=tt_ov_i</t>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>https://m.imdb.com//title/tt9335498/mediaviewer/rm888549377/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>['Natsuki Hanae', 'Zach Aguilar', 'Abby Trott']</t>
         </is>
       </c>
     </row>
@@ -5406,7 +7056,17 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0080306/mediaviewer/rm1513373441/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>['Paul Eddington', 'Nigel Hawthorne', 'Derek Fowlds']</t>
         </is>
       </c>
     </row>
@@ -5436,7 +7096,17 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
+          <t>['Danny Strong']</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt9174558/mediaviewer/rm4215011073/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>['Michael Keaton', 'Peter Sarsgaard', 'Michael Stuhlbarg']</t>
         </is>
       </c>
     </row>
@@ -5466,7 +7136,17 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt9103932/mediaviewer/rm3472920065/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>['Derek Jacobi', 'Geoffrey Wawro', 'James Holland']</t>
         </is>
       </c>
     </row>
@@ -5476,27 +7156,37 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>168. The Bear</t>
+          <t>168. Scavengers Reign</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2022–</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>['Comedy', 'Drama']</t>
+          <t>['Animation', 'Adventure', 'Drama']</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>https://m.imdb.com//title/tt14452776/mediaviewer/rm866266369/?ref_=tt_ov_i</t>
+          <t>['Joe Bennett', 'Charles Huettner']</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>https://m.imdb.com//title/tt21056886/mediaviewer/rm1036538625/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>['Sunita Mani', 'Wunmi Mosaku', 'Bob Stephenson']</t>
         </is>
       </c>
     </row>
@@ -5506,27 +7196,37 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>169. Scavengers Reign</t>
+          <t>169. The Bear</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022–</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>['Animation', 'Adventure', 'Drama']</t>
+          <t>['Comedy', 'Drama']</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>https://m.imdb.com//title/tt21056886/mediaviewer/rm1036538625/?ref_=tt_ov_i</t>
+          <t>['Christopher Storer']</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>https://m.imdb.com//title/tt14452776/mediaviewer/rm866266369/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>['Jeremy Allen White', 'Ebon Moss-Bachrach', 'Ayo Edebiri']</t>
         </is>
       </c>
     </row>
@@ -5556,7 +7256,17 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
+          <t>['Aaron Sorkin']</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1870479/mediaviewer/rm1048939265/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>['Jeff Daniels', 'Emily Mortimer', 'John Gallagher Jr.']</t>
         </is>
       </c>
     </row>
@@ -5586,7 +7296,17 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
+          <t>['John Linson', 'Taylor Sheridan']</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt4236770/mediaviewer/rm1222589185/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>['Kevin Costner', 'Luke Grimes', 'Kelly Reilly']</t>
         </is>
       </c>
     </row>
@@ -5616,7 +7336,17 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
+          <t>['Terence Winter']</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0979432/mediaviewer/rm1353588736/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>['Steve Buscemi', 'Kelly Macdonald', 'Michael Shannon']</t>
         </is>
       </c>
     </row>
@@ -5646,7 +7376,17 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0380136/mediaviewer/rm1907901440/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>['Alan Davies', 'Stephen Fry', 'Sandi Toksvig']</t>
         </is>
       </c>
     </row>
@@ -5676,7 +7416,17 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
+          <t>['Graham Yost']</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1489428/mediaviewer/rm1761132289/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>['Timothy Olyphant', 'Nick Searcy', 'Joelle Carter']</t>
         </is>
       </c>
     </row>
@@ -5706,7 +7456,17 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
+          <t>['Roberto Gómez Bolaños']</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0229889/mediaviewer/rm3532251649/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>['Ramón Valdés', 'Roberto Gómez Bolaños', 'Carlos Villagrán']</t>
         </is>
       </c>
     </row>
@@ -5736,7 +7496,17 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0053488/mediaviewer/rm3732092673/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>['Mel Blanc', 'June Foray', 'Daws Butler']</t>
         </is>
       </c>
     </row>
@@ -5766,7 +7536,17 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
+          <t>['Eric Rochant']</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt4063800/mediaviewer/rm1796479488/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>['Mathieu Kassovitz', 'Florence Loiret Caille', 'Jonathan Zaccaï']</t>
         </is>
       </c>
     </row>
@@ -5796,7 +7576,17 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
+          <t>['Paul Attanasio']</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0106028/mediaviewer/rm969658113/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>['Richard Belzer', 'Clark Johnson', 'Yaphet Kotto']</t>
         </is>
       </c>
     </row>
@@ -5826,7 +7616,17 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
+          <t>['Mike Flanagan']</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt6763664/mediaviewer/rm890600960/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>['Michiel Huisman', 'Carla Gugino', 'Henry Thomas']</t>
         </is>
       </c>
     </row>
@@ -5856,7 +7656,17 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
+          <t>['Jemaine Clement']</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt7908628/mediaviewer/rm3277725953/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>['Kayvan Novak', 'Matt Berry', 'Natasia Demetriou']</t>
         </is>
       </c>
     </row>
@@ -5886,7 +7696,17 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0088509/mediaviewer/rm4154594561/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>['Masako Nozawa', 'Jôji Yanami', 'Brice Armstrong']</t>
         </is>
       </c>
     </row>
@@ -5916,7 +7736,17 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
+          <t>['Bob Kane', 'William Moulton Marston', 'Joe Shuster']</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0275137/mediaviewer/rm2643929857/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>['Carl Lumbly', 'Phil LaMarr', 'Michael Rosenbaum']</t>
         </is>
       </c>
     </row>
@@ -5946,7 +7776,17 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt12343534/mediaviewer/rm3273777409/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>['Junya Enoki', 'Yuma Uchida', 'Yûichi Nakamura']</t>
         </is>
       </c>
     </row>
@@ -5976,7 +7816,17 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
+          <t>['Christopher McCulloch']</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0417373/mediaviewer/rm2675180032/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>['Christopher McCulloch', 'James Urbaniak', 'Doc Hammer']</t>
         </is>
       </c>
     </row>
@@ -6006,7 +7856,17 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0314979/mediaviewer/rm1399134464/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>['Edward James Olmos', 'Mary McDonnell', 'Katee Sackhoff']</t>
         </is>
       </c>
     </row>
@@ -6036,7 +7896,17 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
+          <t>['Krishna D.K.', 'Raj Nidimoru']</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt9544034/mediaviewer/rm3796551169/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>['Manoj Bajpayee', 'Samantha Ruth Prabhu', 'Priyamani']</t>
         </is>
       </c>
     </row>
@@ -6066,7 +7936,17 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0280249/mediaviewer/rm1620582400/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>['Brice Armstrong', 'Steve Olson', 'Stephanie Nadolny']</t>
         </is>
       </c>
     </row>
@@ -6096,7 +7976,17 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
+          <t>['Scott Frank', 'Allan Scott']</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt10048342/mediaviewer/rm1650697985/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>['Anya Taylor-Joy', 'Chloe Pirrie', 'Bill Camp']</t>
         </is>
       </c>
     </row>
@@ -6126,7 +8016,17 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
+          <t>['James Bobin', 'Jemaine Clement', 'Bret McKenzie']</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0863046/mediaviewer/rm2596930048/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>['Jemaine Clement', 'Bret McKenzie', 'Rhys Darby']</t>
         </is>
       </c>
     </row>
@@ -6156,7 +8056,17 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt5189670/mediaviewer/rm1978825984/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>['Steven Avery', 'Dolores Avery', 'Laura Nirider']</t>
         </is>
       </c>
     </row>
@@ -6186,7 +8096,17 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0237123/mediaviewer/rm747650049/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>['Jack Davenport', 'Gina Bellman', 'Sarah Alexander']</t>
         </is>
       </c>
     </row>
@@ -6216,7 +8136,17 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt2701582/mediaviewer/rm1391402497/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>['Shaun Evans', 'Roger Allam', 'James Bradshaw']</t>
         </is>
       </c>
     </row>
@@ -6246,7 +8176,17 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
+          <t>["Shin'ichirô Watanabe"]</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0423731/mediaviewer/rm3483505921/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>['Kazuya Nakai', 'Ginpei Sato', 'Ayako Kawasumi']</t>
         </is>
       </c>
     </row>
@@ -6276,7 +8216,17 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0086831/mediaviewer/rm2567186689/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>['Paul Eddington', 'Nigel Hawthorne', 'Derek Fowlds']</t>
         </is>
       </c>
     </row>
@@ -6306,7 +8256,17 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt2100976/mediaviewer/rm117753857/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>['James Murray', 'Brian Quinn', 'Sal Vulcano']</t>
         </is>
       </c>
     </row>
@@ -6336,7 +8296,17 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt13868972/mediaviewer/rm3134073345/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>['Jim Sarbh', 'Saba Azad', 'Regina Cassandra']</t>
         </is>
       </c>
     </row>
@@ -6366,7 +8336,17 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0487831/mediaviewer/rm3447664896/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>["Chris O'Dowd", 'Richard Ayoade', 'Katherine Parkinson']</t>
         </is>
       </c>
     </row>
@@ -6396,7 +8376,17 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
+          <t>['Eric André']</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt2244495/mediaviewer/rm1179524096/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>['Eric André', 'Hannibal Buress', 'Robert Smith']</t>
         </is>
       </c>
     </row>
@@ -6426,7 +8416,17 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
+          <t>['Sam Esmail']</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt4158110/mediaviewer/rm9147905/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>['Rami Malek', 'Christian Slater', 'Carly Chaikin']</t>
         </is>
       </c>
     </row>
@@ -6456,7 +8456,17 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
+          <t>['Dragan Bjelogrlic']</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt6108262/mediaviewer/rm1327778816/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>['Andrija Kuzmanovic', 'Marija Bergam', 'Dragan Bjelogrlic']</t>
         </is>
       </c>
     </row>
@@ -6486,7 +8496,17 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1534360/mediaviewer/rm2992209152/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>['Kenan Imirzalioglu', 'Cansu Dere', 'Yigit Özsener']</t>
         </is>
       </c>
     </row>
@@ -6516,7 +8536,17 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0187664/mediaviewer/rm2738428160/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>['Simon Pegg', 'Jessica Hynes', 'Julia Deakin']</t>
         </is>
       </c>
     </row>
@@ -6546,7 +8576,17 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0129690/mediaviewer/rm3224512001/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>['Steve Coogan', 'Simon Greenall', 'Felicity Montagu']</t>
         </is>
       </c>
     </row>
@@ -6576,7 +8616,17 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
+          <t>['Genndy Tartakovsky']</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0278238/mediaviewer/rm3045931009/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>['Phil LaMarr', 'Mako', 'Kevin Michael Richardson']</t>
         </is>
       </c>
     </row>
@@ -6606,7 +8656,17 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
+          <t>['David Alexanian', 'Charley Boorman', 'Russ Malkin']</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0403778/mediaviewer/rm662647296/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>['Ewan McGregor', 'Charley Boorman', 'David Alexanian']</t>
         </is>
       </c>
     </row>
@@ -6636,7 +8696,17 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt5897304/mediaviewer/rm374999041/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>['Takahiro Sakurai', 'Setsuo Ito', 'Chris Niosi']</t>
         </is>
       </c>
     </row>
@@ -6666,7 +8736,17 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
+          <t>['Mackenzie Crook']</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt4082744/mediaviewer/rm71950336/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>['Mackenzie Crook', 'Toby Jones', 'Rachael Stirling']</t>
         </is>
       </c>
     </row>
@@ -6696,7 +8776,17 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
+          <t>['Louis C.K.']</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1492966/mediaviewer/rm1858071809/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>['Louis C.K.', 'Hadley Delany', 'Ursula Parker']</t>
         </is>
       </c>
     </row>
@@ -6726,7 +8816,17 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
+          <t>['Sally Wainwright']</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt3428912/mediaviewer/rm1599573505/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>['Sarah Lancashire', 'Siobhan Finneran', 'James Norton']</t>
         </is>
       </c>
     </row>
@@ -6756,7 +8856,17 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
+          <t>['Mark Leveson', 'Dan Patterson']</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0163507/mediaviewer/rm1992950272/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>['Drew Carey', 'Colin Mochrie', 'Ryan Stiles']</t>
         </is>
       </c>
     </row>
@@ -6786,7 +8896,17 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
+          <t>['Steven S. DeKnight']</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1442449/mediaviewer/rm2890457089/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>['Andy Whitfield', 'Lucy Lawless', 'Manu Bennett']</t>
         </is>
       </c>
     </row>
@@ -6816,7 +8936,17 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
+          <t>['Ricky Gervais', 'Stephen Merchant']</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0290978/mediaviewer/rm1985018369/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>['Ricky Gervais', 'Martin Freeman', 'Mackenzie Crook']</t>
         </is>
       </c>
     </row>
@@ -6846,7 +8976,17 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1513168/mediaviewer/rm1649938176/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>['Morgan Freeman', 'Sean Carroll', 'Michio Kaku']</t>
         </is>
       </c>
     </row>
@@ -6876,7 +9016,17 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
+          <t>['Kurt Sutter']</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1124373/mediaviewer/rm601609985/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>['Charlie Hunnam', 'Katey Sagal', 'Mark Boone Junior']</t>
         </is>
       </c>
     </row>
@@ -6906,7 +9056,17 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt8289930/mediaviewer/rm688155904/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>['Will Buxton', 'Jack Nicholls', 'Daniel Ricciardo']</t>
         </is>
       </c>
     </row>
@@ -6936,7 +9096,17 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
+          <t>['Alice Oseman']</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt10638036/mediaviewer/rm3805160705/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>['Joe Locke', 'Kit Connor', 'William Gao']</t>
         </is>
       </c>
     </row>
@@ -6966,7 +9136,17 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
+          <t>['Hideaki Anno']</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0112159/mediaviewer/rm1822823681/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>['Megumi Ogata', 'Megumi Hayashibara', 'Kotono Mitsuishi']</t>
         </is>
       </c>
     </row>
@@ -6996,7 +9176,17 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
+          <t>['Mark Frost', 'David Lynch']</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt4093826/mediaviewer/rm95022849/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>['Kyle MacLachlan', 'Sheryl Lee', 'Michael Horse']</t>
         </is>
       </c>
     </row>
@@ -7026,7 +9216,17 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
+          <t>['Paul Abbott', 'John Wells']</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1586680/mediaviewer/rm2969561345/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>['Emmy Rossum', 'William H. Macy', 'Ethan Cutkosky']</t>
         </is>
       </c>
     </row>
@@ -7056,7 +9256,17 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
+          <t>['Mike Clattenburg']</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0290988/mediaviewer/rm2293178112/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>['John Paul Tremblay', 'Robb Wells', 'Mike Smith']</t>
         </is>
       </c>
     </row>
@@ -7086,7 +9296,17 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
+          <t>['J.G. Quintel']</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1710308/mediaviewer/rm3524992001/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>['J.G. Quintel', 'William Salyers', 'Sam Marin']</t>
         </is>
       </c>
     </row>
@@ -7116,7 +9336,17 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
+          <t>['Julie Andem']</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt5288312/mediaviewer/rm3779534848/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>['Josefine Frida Pettersen', 'Iman Meskini', 'Ulrikke Falch']</t>
         </is>
       </c>
     </row>
@@ -7146,7 +9376,17 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0118273/mediaviewer/rm760434689/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>['Christopher Morris', 'Mark Heap', 'Kevin Eldon']</t>
         </is>
       </c>
     </row>
@@ -7176,7 +9416,17 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
+          <t>['Steven S. DeKnight']</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1758429/mediaviewer/rm3238246912/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>['John Hannah', 'Manu Bennett', 'Peter Mensah']</t>
         </is>
       </c>
     </row>
@@ -7206,7 +9456,17 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0417349/mediaviewer/rm2830146049/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>['Daniela Denby-Ashe', 'Richard Armitage', 'Tim Pigott-Smith']</t>
         </is>
       </c>
     </row>
@@ -7236,7 +9496,17 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
+          <t>['Lisa McGee']</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt7120662/mediaviewer/rm4023084800/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>['Saoirse-Monica Jackson', 'Louisa Harland', "Tara Lynne O'Neill"]</t>
         </is>
       </c>
     </row>
@@ -7266,7 +9536,17 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
+          <t>['John Altschuler', 'Mike Judge', 'Dave Krinsky']</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt2575988/mediaviewer/rm4111831553/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>['Thomas Middleditch', 'T.J. Miller', 'Josh Brener']</t>
         </is>
       </c>
     </row>
@@ -7296,7 +9576,17 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
+          <t>['Dan Levy', 'Eugene Levy']</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt3526078/mediaviewer/rm3540367873/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>['Eugene Levy', "Catherine O'Hara", 'Dan Levy']</t>
         </is>
       </c>
     </row>
@@ -7326,7 +9616,17 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
+          <t>['Jared Keeso', 'Jacob Tierney']</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt4647692/mediaviewer/rm1840466689/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>['Jared Keeso', 'Nathan Dales', 'Michelle Mylett']</t>
         </is>
       </c>
     </row>
@@ -7356,7 +9656,17 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
+          <t>['David X. Cohen', 'Matt Groening']</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0149460/mediaviewer/rm2724603649/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>['Billy West', 'John DiMaggio', 'Katey Sagal']</t>
         </is>
       </c>
     </row>
@@ -7386,7 +9696,17 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0436992/mediaviewer/rm3756256001/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>['Jodie Whittaker', 'Peter Capaldi', 'Pearl Mackie']</t>
         </is>
       </c>
     </row>
@@ -7416,7 +9736,17 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0421357/mediaviewer/rm1374488833/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>['Vic Mignogna', 'Aaron Dismuke', 'Romi Park']</t>
         </is>
       </c>
     </row>
@@ -7446,7 +9776,17 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0203082/mediaviewer/rm61019393/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>['Mayo Suzukaze', 'Junko Iwao', 'Nozomu Sasaki']</t>
         </is>
       </c>
     </row>
@@ -7476,7 +9816,17 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
+          <t>['Daniel Abraham', 'Mark Fergus', 'Ty Franck']</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt3230854/mediaviewer/rm1811081473/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>['Steven Strait', 'Dominique Tipper', 'Wes Chatham']</t>
         </is>
       </c>
     </row>
@@ -7506,7 +9856,17 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt20869502/mediaviewer/rm3484751361/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>['Park Eun-bin', 'Kang Tae-oh', 'Kang Ki-young']</t>
         </is>
       </c>
     </row>
@@ -7516,27 +9876,37 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>236. From the Earth to the Moon</t>
+          <t>236. Hannibal</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2013–2015</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>['Action', 'Drama', 'History']</t>
+          <t>['Crime', 'Drama', 'Horror']</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>https://m.imdb.com//title/tt0120570/mediaviewer/rm1877712129/?ref_=tt_ov_i</t>
+          <t>['Bryan Fuller']</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>https://m.imdb.com//title/tt2243973/mediaviewer/rm3751722497/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>['Hugh Dancy', 'Mads Mikkelsen', 'Caroline Dhavernas']</t>
         </is>
       </c>
     </row>
@@ -7546,27 +9916,37 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>237. Hannibal</t>
+          <t>237. From the Earth to the Moon</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>2013–2015</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>['Crime', 'Drama', 'Horror']</t>
+          <t>['Action', 'Drama', 'History']</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>https://m.imdb.com//title/tt2243973/mediaviewer/rm3751722497/?ref_=tt_ov_i</t>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>https://m.imdb.com//title/tt0120570/mediaviewer/rm1877712129/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>['Tom Hanks', 'Nick Searcy', 'Lane Smith']</t>
         </is>
       </c>
     </row>
@@ -7596,7 +9976,17 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
+          <t>['Nathan Fielder']</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt10802170/mediaviewer/rm592647937/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>['Nathan Fielder', 'Journey Baker', 'Anna Lamadrid']</t>
         </is>
       </c>
     </row>
@@ -7626,7 +10016,17 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
+          <t>['Saverio Costanzo']</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt7278862/mediaviewer/rm4270504961/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>['Alba Rohrwacher', 'Margherita Mazzucco', 'Gaia Girace']</t>
         </is>
       </c>
     </row>
@@ -7656,7 +10056,17 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
+          <t>['Reg Watson', 'Lara Radulovich']</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt2433738/mediaviewer/rm3063677953/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>['Kate Atkinson', 'Katrina Milosevic', 'Robbie Magasiva']</t>
         </is>
       </c>
     </row>
@@ -7686,7 +10096,17 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt4269716/mediaviewer/rm3779168513/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>['Serban Pavlu', 'Maria Obretin', 'Andreea Vasile']</t>
         </is>
       </c>
     </row>
@@ -7716,7 +10136,17 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0421291/mediaviewer/rm2538726400/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>['Gülse Birsel', 'Levent Üzümcü', 'Senay Gürler']</t>
         </is>
       </c>
     </row>
@@ -7746,7 +10176,17 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
+          <t>['Lisa Joy', 'Jonathan Nolan']</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0475784/mediaviewer/rm4025685505/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>['Evan Rachel Wood', 'Jeffrey Wright', 'Ed Harris']</t>
         </is>
       </c>
     </row>
@@ -7776,7 +10216,17 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt3895150/mediaviewer/rm3760397568/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>['Natsuki Hanae', 'Risa Taneda', 'Ayane Sakura']</t>
         </is>
       </c>
     </row>
@@ -7806,7 +10256,17 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
+          <t>['Dan Harmon']</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt1439629/mediaviewer/rm1767053056/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>['Joel McHale', 'Danny Pudi', 'Donald Glover']</t>
         </is>
       </c>
     </row>
@@ -7836,7 +10296,17 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt0988818/mediaviewer/rm2862748929/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>['Tomokazu Sugita', 'Daisuke Sakaguchi', 'Rie Kugimiya']</t>
         </is>
       </c>
     </row>
@@ -7846,27 +10316,37 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>247. Tear Along the Dotted Line</t>
+          <t>247. Alchemy of Souls</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022–</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>['Animation', 'Comedy', 'Drama']</t>
+          <t>['Action', 'Drama', 'Fantasy']</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>https://m.imdb.com//title/tt15614372/mediaviewer/rm2491818241/?ref_=tt_ov_i</t>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>https://m.imdb.com//title/tt20859920/mediaviewer/rm1107629569/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>['Lee Jae-wook', 'Hwang Min-hyun', 'Yoo Joon-sang']</t>
         </is>
       </c>
     </row>
@@ -7876,27 +10356,37 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>248. Alchemy of Souls</t>
+          <t>248. Tear Along the Dotted Line</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>2022–</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>['Action', 'Drama', 'Fantasy']</t>
+          <t>['Animation', 'Comedy', 'Drama']</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>https://m.imdb.com//title/tt20859920/mediaviewer/rm1107629569/?ref_=tt_ov_i</t>
+          <t>['Zerocalcare']</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>https://m.imdb.com//title/tt15614372/mediaviewer/rm2491818241/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>['Zerocalcare', 'Valerio Mastandrea', 'Wayne Forester']</t>
         </is>
       </c>
     </row>
@@ -7926,7 +10416,17 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
           <t>https://m.imdb.com//title/tt4295140/mediaviewer/rm871918592/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>['Massimo Bottura', 'Ruth Reichl', 'Francis Mallmann']</t>
         </is>
       </c>
     </row>
@@ -7936,27 +10436,37 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>250. Foyle's War</t>
+          <t>250. Mr. Sunshine</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>2002–2015</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>['Crime', 'Drama', 'Mystery']</t>
+          <t>['Action', 'Drama', 'Romance']</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>https://m.imdb.com//title/tt0310455/mediaviewer/rm4229807105/?ref_=tt_ov_i</t>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>https://m.imdb.com//title/tt7094780/mediaviewer/rm3955595265/?ref_=tt_ov_i</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>['Lee Byung-hun', 'Kim Tae-ri', 'Yoo Yeon-seok']</t>
         </is>
       </c>
     </row>
